--- a/Code/Results/Cases/Case_5_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003237321512425</v>
+        <v>1.053311405987383</v>
       </c>
       <c r="D2">
-        <v>1.023855809029617</v>
+        <v>1.057178970700206</v>
       </c>
       <c r="E2">
-        <v>1.008453518249626</v>
+        <v>1.04994373469313</v>
       </c>
       <c r="F2">
-        <v>1.027887476321158</v>
+        <v>1.065863333543118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044873443819644</v>
+        <v>1.042071305733029</v>
       </c>
       <c r="J2">
-        <v>1.025321634122484</v>
+        <v>1.058329415949934</v>
       </c>
       <c r="K2">
-        <v>1.034992505351624</v>
+        <v>1.059914650324083</v>
       </c>
       <c r="L2">
-        <v>1.019796325150134</v>
+        <v>1.052699386186681</v>
       </c>
       <c r="M2">
-        <v>1.038971499046537</v>
+        <v>1.068575428680131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011396406111458</v>
+        <v>1.054917820275471</v>
       </c>
       <c r="D3">
-        <v>1.030203561524116</v>
+        <v>1.058435077303894</v>
       </c>
       <c r="E3">
-        <v>1.0153039629331</v>
+        <v>1.051334340832682</v>
       </c>
       <c r="F3">
-        <v>1.034797971783064</v>
+        <v>1.067255699464447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04730553177287</v>
+        <v>1.042456115581319</v>
       </c>
       <c r="J3">
-        <v>1.031581142401159</v>
+        <v>1.05958347505465</v>
       </c>
       <c r="K3">
-        <v>1.040464034419671</v>
+        <v>1.060983418105704</v>
       </c>
       <c r="L3">
-        <v>1.025744700999919</v>
+        <v>1.053900848627291</v>
       </c>
       <c r="M3">
-        <v>1.045004155023207</v>
+        <v>1.06978183564112</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016509459481931</v>
+        <v>1.055955591618639</v>
       </c>
       <c r="D4">
-        <v>1.034183983606756</v>
+        <v>1.05924616284633</v>
       </c>
       <c r="E4">
-        <v>1.019602883468151</v>
+        <v>1.052232808980301</v>
       </c>
       <c r="F4">
-        <v>1.03913425776756</v>
+        <v>1.068155191664532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0488167172811</v>
+        <v>1.042702974607754</v>
       </c>
       <c r="J4">
-        <v>1.035500076428379</v>
+        <v>1.060392890346863</v>
       </c>
       <c r="K4">
-        <v>1.043886627173771</v>
+        <v>1.061672727730932</v>
       </c>
       <c r="L4">
-        <v>1.029470338621029</v>
+        <v>1.054676404003347</v>
       </c>
       <c r="M4">
-        <v>1.048782240204221</v>
+        <v>1.070560469524717</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018621538347824</v>
+        <v>1.05639147645416</v>
       </c>
       <c r="D5">
-        <v>1.035828658978319</v>
+        <v>1.059586742742082</v>
       </c>
       <c r="E5">
-        <v>1.021379982219291</v>
+        <v>1.052610209725866</v>
       </c>
       <c r="F5">
-        <v>1.040926699378743</v>
+        <v>1.068532995243461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049437771862264</v>
+        <v>1.042806244618098</v>
       </c>
       <c r="J5">
-        <v>1.037117920845614</v>
+        <v>1.060732686084891</v>
       </c>
       <c r="K5">
-        <v>1.045298814678433</v>
+        <v>1.061961979698917</v>
       </c>
       <c r="L5">
-        <v>1.031008732041576</v>
+        <v>1.05500200615906</v>
       </c>
       <c r="M5">
-        <v>1.050342184059721</v>
+        <v>1.070887336739887</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018974035221942</v>
+        <v>1.056464640590529</v>
       </c>
       <c r="D6">
-        <v>1.036103171488814</v>
+        <v>1.059643904306206</v>
       </c>
       <c r="E6">
-        <v>1.021676646876689</v>
+        <v>1.052673558693224</v>
       </c>
       <c r="F6">
-        <v>1.041225918513223</v>
+        <v>1.068596410218494</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049541234020537</v>
+        <v>1.042823554300172</v>
       </c>
       <c r="J6">
-        <v>1.037387872638055</v>
+        <v>1.060789711198179</v>
       </c>
       <c r="K6">
-        <v>1.045534405547845</v>
+        <v>1.062010515247211</v>
       </c>
       <c r="L6">
-        <v>1.031265446816852</v>
+        <v>1.05505665050625</v>
       </c>
       <c r="M6">
-        <v>1.050602488059432</v>
+        <v>1.070942191781378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016537825328789</v>
+        <v>1.05596141747059</v>
       </c>
       <c r="D7">
-        <v>1.034206070438907</v>
+        <v>1.059250715257258</v>
       </c>
       <c r="E7">
-        <v>1.019626745350676</v>
+        <v>1.0522378530574</v>
       </c>
       <c r="F7">
-        <v>1.039158326108594</v>
+        <v>1.068160241233356</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048825070916964</v>
+        <v>1.042704356505721</v>
       </c>
       <c r="J7">
-        <v>1.035521808514639</v>
+        <v>1.060397432601119</v>
       </c>
       <c r="K7">
-        <v>1.043905599749488</v>
+        <v>1.061676594820013</v>
       </c>
       <c r="L7">
-        <v>1.029491002102833</v>
+        <v>1.05468075644121</v>
       </c>
       <c r="M7">
-        <v>1.04880319360073</v>
+        <v>1.070564838981128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.006030692351059</v>
+        <v>1.053854656027642</v>
       </c>
       <c r="D8">
-        <v>1.026028436358621</v>
+        <v>1.057603833537508</v>
       </c>
       <c r="E8">
-        <v>1.010797530280935</v>
+        <v>1.050413979811986</v>
       </c>
       <c r="F8">
-        <v>1.030252085949173</v>
+        <v>1.066334196986565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045708785171541</v>
+        <v>1.04220179834801</v>
       </c>
       <c r="J8">
-        <v>1.027465391723943</v>
+        <v>1.058753658761089</v>
       </c>
       <c r="K8">
-        <v>1.036867010719686</v>
+        <v>1.060276315826143</v>
       </c>
       <c r="L8">
-        <v>1.021833201859351</v>
+        <v>1.053105817487065</v>
       </c>
       <c r="M8">
-        <v>1.041037291334878</v>
+        <v>1.068983555926171</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9861206850510639</v>
+        <v>1.050128935912557</v>
       </c>
       <c r="D9">
-        <v>1.010559905067214</v>
+        <v>1.054688514744175</v>
       </c>
       <c r="E9">
-        <v>0.9941213911578936</v>
+        <v>1.04718944107112</v>
       </c>
       <c r="F9">
-        <v>1.013429281678392</v>
+        <v>1.063104964945842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039702160535596</v>
+        <v>1.041299735161952</v>
       </c>
       <c r="J9">
-        <v>1.012173260859434</v>
+        <v>1.055841139911728</v>
       </c>
       <c r="K9">
-        <v>1.023483947384387</v>
+        <v>1.057791309623664</v>
       </c>
       <c r="L9">
-        <v>1.007310570211101</v>
+        <v>1.050315944357748</v>
       </c>
       <c r="M9">
-        <v>1.026308171825566</v>
+        <v>1.066181586151517</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9717165942470926</v>
+        <v>1.047635560798287</v>
       </c>
       <c r="D10">
-        <v>0.9993991219491737</v>
+        <v>1.052735620548487</v>
       </c>
       <c r="E10">
-        <v>0.982103462927097</v>
+        <v>1.04503213792172</v>
       </c>
       <c r="F10">
-        <v>1.001307110692217</v>
+        <v>1.06094396368233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035293319397891</v>
+        <v>1.040687113983104</v>
       </c>
       <c r="J10">
-        <v>1.001099116579214</v>
+        <v>1.053888269292959</v>
       </c>
       <c r="K10">
-        <v>1.013779233916486</v>
+        <v>1.056122471364848</v>
       </c>
       <c r="L10">
-        <v>0.9968035419640339</v>
+        <v>1.048445773111025</v>
       </c>
       <c r="M10">
-        <v>1.015652804888784</v>
+        <v>1.064302745382207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9651595177472436</v>
+        <v>1.046553501044236</v>
       </c>
       <c r="D11">
-        <v>0.9943286325612072</v>
+        <v>1.051887687750231</v>
       </c>
       <c r="E11">
-        <v>0.9766461958853091</v>
+        <v>1.044096094475273</v>
       </c>
       <c r="F11">
-        <v>0.9958034510235393</v>
+        <v>1.060006186959753</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033272849071275</v>
+        <v>1.040419139359406</v>
       </c>
       <c r="J11">
-        <v>0.9960571289321924</v>
+        <v>1.053039899970462</v>
       </c>
       <c r="K11">
-        <v>1.009358301001589</v>
+        <v>1.055396875304433</v>
       </c>
       <c r="L11">
-        <v>0.992022391319799</v>
+        <v>1.04763344168309</v>
       </c>
       <c r="M11">
-        <v>1.010804944435044</v>
+        <v>1.063486518978061</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9626706304856774</v>
+        <v>1.046151201990267</v>
       </c>
       <c r="D12">
-        <v>0.9924058352849238</v>
+        <v>1.051572371780543</v>
       </c>
       <c r="E12">
-        <v>0.9745770521014221</v>
+        <v>1.043748109373132</v>
       </c>
       <c r="F12">
-        <v>0.9937169181090514</v>
+        <v>1.059657538469735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032504065175079</v>
+        <v>1.040319192035509</v>
       </c>
       <c r="J12">
-        <v>0.9941433897881148</v>
+        <v>1.052724353919394</v>
       </c>
       <c r="K12">
-        <v>1.007679988214764</v>
+        <v>1.055126901805717</v>
       </c>
       <c r="L12">
-        <v>0.9902080797860615</v>
+        <v>1.047331316585568</v>
       </c>
       <c r="M12">
-        <v>1.008965490209312</v>
+        <v>1.063182926136689</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9632070095992928</v>
+        <v>1.046237513608037</v>
       </c>
       <c r="D13">
-        <v>0.992820129214017</v>
+        <v>1.051640024362796</v>
       </c>
       <c r="E13">
-        <v>0.9750228650406901</v>
+        <v>1.043822766937197</v>
       </c>
       <c r="F13">
-        <v>0.9941664675770732</v>
+        <v>1.059732339214326</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032669827101791</v>
+        <v>1.04034064966236</v>
       </c>
       <c r="J13">
-        <v>0.9945558130452772</v>
+        <v>1.052792058942385</v>
       </c>
       <c r="K13">
-        <v>1.008041688031081</v>
+        <v>1.055184832738346</v>
       </c>
       <c r="L13">
-        <v>0.9905990561062302</v>
+        <v>1.047396141181545</v>
       </c>
       <c r="M13">
-        <v>1.009361875997925</v>
+        <v>1.063248066514555</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9649549058197222</v>
+        <v>1.046520254573048</v>
       </c>
       <c r="D14">
-        <v>0.9941705202575959</v>
+        <v>1.051861630941608</v>
       </c>
       <c r="E14">
-        <v>0.9764760433144225</v>
+        <v>1.044067336026317</v>
       </c>
       <c r="F14">
-        <v>0.9956318640494036</v>
+        <v>1.059977374072733</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0332096840901</v>
+        <v>1.040410886056708</v>
       </c>
       <c r="J14">
-        <v>0.9958997976845764</v>
+        <v>1.053013825533894</v>
       </c>
       <c r="K14">
-        <v>1.009220330199701</v>
+        <v>1.055374568531891</v>
       </c>
       <c r="L14">
-        <v>0.9918732253864061</v>
+        <v>1.047608475912137</v>
       </c>
       <c r="M14">
-        <v>1.010653707553923</v>
+        <v>1.063461432309638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9660246103571405</v>
+        <v>1.046694410723696</v>
       </c>
       <c r="D15">
-        <v>0.9949972020841783</v>
+        <v>1.05199812266078</v>
       </c>
       <c r="E15">
-        <v>0.9773656897857681</v>
+        <v>1.044217983506022</v>
       </c>
       <c r="F15">
-        <v>0.9965290188561737</v>
+        <v>1.060128305942428</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033539833685028</v>
+        <v>1.040454106644991</v>
       </c>
       <c r="J15">
-        <v>0.9967223239870807</v>
+        <v>1.053150406815261</v>
       </c>
       <c r="K15">
-        <v>1.009941628439688</v>
+        <v>1.055491410526736</v>
       </c>
       <c r="L15">
-        <v>0.992653080902128</v>
+        <v>1.04773925055027</v>
       </c>
       <c r="M15">
-        <v>1.01144439751327</v>
+        <v>1.063592839447355</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.972144595692333</v>
+        <v>1.047707321743474</v>
       </c>
       <c r="D16">
-        <v>0.9997303226936449</v>
+        <v>1.052791845571244</v>
       </c>
       <c r="E16">
-        <v>0.9824599763760044</v>
+        <v>1.045094218897633</v>
       </c>
       <c r="F16">
-        <v>1.001666679158143</v>
+        <v>1.061006156931386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035424936567269</v>
+        <v>1.040704841305751</v>
       </c>
       <c r="J16">
-        <v>1.001428221661322</v>
+        <v>1.053944513804329</v>
       </c>
       <c r="K16">
-        <v>1.014067755887229</v>
+        <v>1.056170563411529</v>
       </c>
       <c r="L16">
-        <v>0.997115678118394</v>
+        <v>1.048499630766869</v>
       </c>
       <c r="M16">
-        <v>1.015969316789239</v>
+        <v>1.064356858581653</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9758943783703121</v>
+        <v>1.048342040231026</v>
       </c>
       <c r="D17">
-        <v>1.002633194297097</v>
+        <v>1.053289101166261</v>
       </c>
       <c r="E17">
-        <v>0.9855849949679834</v>
+        <v>1.045643338736224</v>
       </c>
       <c r="F17">
-        <v>1.004818588992985</v>
+        <v>1.061556255039519</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036576555965021</v>
+        <v>1.040861393964888</v>
       </c>
       <c r="J17">
-        <v>1.004311490160806</v>
+        <v>1.05444189014093</v>
       </c>
       <c r="K17">
-        <v>1.016595211067153</v>
+        <v>1.056595775558403</v>
       </c>
       <c r="L17">
-        <v>0.9998505820251186</v>
+        <v>1.048975912752993</v>
       </c>
       <c r="M17">
-        <v>1.018742655111761</v>
+        <v>1.064835385558804</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9780510779195154</v>
+        <v>1.04871202885899</v>
       </c>
       <c r="D18">
-        <v>1.004303720251545</v>
+        <v>1.053578918950358</v>
       </c>
       <c r="E18">
-        <v>0.9873836125791096</v>
+        <v>1.045963446695054</v>
       </c>
       <c r="F18">
-        <v>1.006632768224205</v>
+        <v>1.061876920856236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037237642374172</v>
+        <v>1.040952447643325</v>
       </c>
       <c r="J18">
-        <v>1.005969725605071</v>
+        <v>1.054731735303781</v>
       </c>
       <c r="K18">
-        <v>1.018048577099909</v>
+        <v>1.056843507771146</v>
       </c>
       <c r="L18">
-        <v>1.001423733908516</v>
+        <v>1.049253475950168</v>
       </c>
       <c r="M18">
-        <v>1.020337985264948</v>
+        <v>1.065114244601194</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9787814319605946</v>
+        <v>1.048838146427919</v>
       </c>
       <c r="D19">
-        <v>1.004869584021773</v>
+        <v>1.053677701739976</v>
       </c>
       <c r="E19">
-        <v>0.9879929100307396</v>
+        <v>1.046072564234804</v>
       </c>
       <c r="F19">
-        <v>1.007247349984535</v>
+        <v>1.061986226440728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037461295652815</v>
+        <v>1.04098345044593</v>
       </c>
       <c r="J19">
-        <v>1.006531258180987</v>
+        <v>1.054830520151985</v>
       </c>
       <c r="K19">
-        <v>1.018540692937191</v>
+        <v>1.056927929623324</v>
       </c>
       <c r="L19">
-        <v>1.001956495093924</v>
+        <v>1.049348076682767</v>
       </c>
       <c r="M19">
-        <v>1.020878267779745</v>
+        <v>1.065209284866954</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9754952506433664</v>
+        <v>1.048273965016969</v>
       </c>
       <c r="D20">
-        <v>1.002324113297147</v>
+        <v>1.053235773469267</v>
       </c>
       <c r="E20">
-        <v>0.9852522353206243</v>
+        <v>1.045584442507192</v>
       </c>
       <c r="F20">
-        <v>1.004482956748742</v>
+        <v>1.061497255168399</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036454108500289</v>
+        <v>1.040844624348633</v>
       </c>
       <c r="J20">
-        <v>1.004004602126793</v>
+        <v>1.054388553948059</v>
       </c>
       <c r="K20">
-        <v>1.016326218710341</v>
+        <v>1.056550184041789</v>
       </c>
       <c r="L20">
-        <v>0.9995594599485566</v>
+        <v>1.048924837503561</v>
       </c>
       <c r="M20">
-        <v>1.0184474341476</v>
+        <v>1.064784070850359</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9644417111255923</v>
+        <v>1.046437004820017</v>
       </c>
       <c r="D21">
-        <v>0.9937739833297732</v>
+        <v>1.051796383218079</v>
       </c>
       <c r="E21">
-        <v>0.9760493150232458</v>
+        <v>1.043995324792653</v>
       </c>
       <c r="F21">
-        <v>0.9952015418383686</v>
+        <v>1.059905226219854</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033051228215518</v>
+        <v>1.040390214521884</v>
       </c>
       <c r="J21">
-        <v>0.9955051910440624</v>
+        <v>1.052948532572612</v>
       </c>
       <c r="K21">
-        <v>1.0088742773932</v>
+        <v>1.055318708684535</v>
       </c>
       <c r="L21">
-        <v>0.9914991053058205</v>
+        <v>1.047545959431715</v>
       </c>
       <c r="M21">
-        <v>1.010274396323781</v>
+        <v>1.063398612783784</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9571803492033246</v>
+        <v>1.0452798660869</v>
       </c>
       <c r="D22">
-        <v>0.9881680319925342</v>
+        <v>1.050889317909541</v>
       </c>
       <c r="E22">
-        <v>0.9700172171881448</v>
+        <v>1.042994461247335</v>
       </c>
       <c r="F22">
-        <v>0.989119205874328</v>
+        <v>1.058902419155564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030804927827371</v>
+        <v>1.040102137538738</v>
       </c>
       <c r="J22">
-        <v>0.9899221728603838</v>
+        <v>1.052040676980054</v>
       </c>
       <c r="K22">
-        <v>1.003977583803942</v>
+        <v>1.054541796123095</v>
       </c>
       <c r="L22">
-        <v>0.9862069937495096</v>
+        <v>1.046676749108441</v>
       </c>
       <c r="M22">
-        <v>1.004909339613391</v>
+        <v>1.062525144098507</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9610612280060947</v>
+        <v>1.045893496686763</v>
       </c>
       <c r="D23">
-        <v>0.9911630408394684</v>
+        <v>1.051370368650212</v>
       </c>
       <c r="E23">
-        <v>0.9732397489069312</v>
+        <v>1.043525204178384</v>
       </c>
       <c r="F23">
-        <v>0.9923684409116358</v>
+        <v>1.059434203019125</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032006436508969</v>
+        <v>1.04025507844012</v>
       </c>
       <c r="J23">
-        <v>0.992905940369186</v>
+        <v>1.052522184236784</v>
       </c>
       <c r="K23">
-        <v>1.006594692474575</v>
+        <v>1.0549539044357</v>
       </c>
       <c r="L23">
-        <v>0.9890350451481104</v>
+        <v>1.047137750442718</v>
       </c>
       <c r="M23">
-        <v>1.007776255364399</v>
+        <v>1.062988414294826</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9756756931059434</v>
+        <v>1.048304725992697</v>
       </c>
       <c r="D24">
-        <v>1.002463843482936</v>
+        <v>1.053259870649298</v>
       </c>
       <c r="E24">
-        <v>0.9854026694261149</v>
+        <v>1.045611055747751</v>
       </c>
       <c r="F24">
-        <v>1.004634689241366</v>
+        <v>1.061523915279779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03650946998539</v>
+        <v>1.040852202622431</v>
       </c>
       <c r="J24">
-        <v>1.004143344039089</v>
+        <v>1.054412655099977</v>
       </c>
       <c r="K24">
-        <v>1.016447828983109</v>
+        <v>1.056570785772145</v>
       </c>
       <c r="L24">
-        <v>0.9996910734251783</v>
+        <v>1.048947916964448</v>
       </c>
       <c r="M24">
-        <v>1.018580900477008</v>
+        <v>1.064807258554575</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.991451567321797</v>
+        <v>1.051093765322707</v>
       </c>
       <c r="D25">
-        <v>1.014697369219349</v>
+        <v>1.055443812387914</v>
       </c>
       <c r="E25">
-        <v>0.9985792437972042</v>
+        <v>1.048024369385662</v>
       </c>
       <c r="F25">
-        <v>1.017926268259925</v>
+        <v>1.063941207962688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041321611833974</v>
+        <v>1.041534910598016</v>
       </c>
       <c r="J25">
-        <v>1.016270085310271</v>
+        <v>1.056596035352925</v>
       </c>
       <c r="K25">
-        <v>1.027071732711011</v>
+        <v>1.058435860021317</v>
       </c>
       <c r="L25">
-        <v>1.011199655286174</v>
+        <v>1.051038970107731</v>
       </c>
       <c r="M25">
-        <v>1.030252532594112</v>
+        <v>1.066907846690206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_238/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_238/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053311405987383</v>
+        <v>1.003237321512421</v>
       </c>
       <c r="D2">
-        <v>1.057178970700206</v>
+        <v>1.023855809029614</v>
       </c>
       <c r="E2">
-        <v>1.04994373469313</v>
+        <v>1.008453518249622</v>
       </c>
       <c r="F2">
-        <v>1.065863333543118</v>
+        <v>1.027887476321155</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042071305733029</v>
+        <v>1.044873443819642</v>
       </c>
       <c r="J2">
-        <v>1.058329415949934</v>
+        <v>1.02532163412248</v>
       </c>
       <c r="K2">
-        <v>1.059914650324083</v>
+        <v>1.034992505351621</v>
       </c>
       <c r="L2">
-        <v>1.052699386186681</v>
+        <v>1.01979632515013</v>
       </c>
       <c r="M2">
-        <v>1.068575428680131</v>
+        <v>1.038971499046534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054917820275471</v>
+        <v>1.011396406111458</v>
       </c>
       <c r="D3">
-        <v>1.058435077303894</v>
+        <v>1.030203561524116</v>
       </c>
       <c r="E3">
-        <v>1.051334340832682</v>
+        <v>1.015303962933099</v>
       </c>
       <c r="F3">
-        <v>1.067255699464447</v>
+        <v>1.034797971783064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042456115581319</v>
+        <v>1.04730553177287</v>
       </c>
       <c r="J3">
-        <v>1.05958347505465</v>
+        <v>1.03158114240116</v>
       </c>
       <c r="K3">
-        <v>1.060983418105704</v>
+        <v>1.040464034419671</v>
       </c>
       <c r="L3">
-        <v>1.053900848627291</v>
+        <v>1.025744700999919</v>
       </c>
       <c r="M3">
-        <v>1.06978183564112</v>
+        <v>1.045004155023207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055955591618639</v>
+        <v>1.016509459481931</v>
       </c>
       <c r="D4">
-        <v>1.05924616284633</v>
+        <v>1.034183983606757</v>
       </c>
       <c r="E4">
-        <v>1.052232808980301</v>
+        <v>1.019602883468151</v>
       </c>
       <c r="F4">
-        <v>1.068155191664532</v>
+        <v>1.03913425776756</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042702974607754</v>
+        <v>1.048816717281101</v>
       </c>
       <c r="J4">
-        <v>1.060392890346863</v>
+        <v>1.035500076428379</v>
       </c>
       <c r="K4">
-        <v>1.061672727730932</v>
+        <v>1.043886627173771</v>
       </c>
       <c r="L4">
-        <v>1.054676404003347</v>
+        <v>1.02947033862103</v>
       </c>
       <c r="M4">
-        <v>1.070560469524717</v>
+        <v>1.048782240204221</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05639147645416</v>
+        <v>1.018621538347823</v>
       </c>
       <c r="D5">
-        <v>1.059586742742082</v>
+        <v>1.035828658978319</v>
       </c>
       <c r="E5">
-        <v>1.052610209725866</v>
+        <v>1.021379982219291</v>
       </c>
       <c r="F5">
-        <v>1.068532995243461</v>
+        <v>1.040926699378743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042806244618098</v>
+        <v>1.049437771862264</v>
       </c>
       <c r="J5">
-        <v>1.060732686084891</v>
+        <v>1.037117920845614</v>
       </c>
       <c r="K5">
-        <v>1.061961979698917</v>
+        <v>1.045298814678433</v>
       </c>
       <c r="L5">
-        <v>1.05500200615906</v>
+        <v>1.031008732041576</v>
       </c>
       <c r="M5">
-        <v>1.070887336739887</v>
+        <v>1.050342184059721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056464640590529</v>
+        <v>1.018974035221943</v>
       </c>
       <c r="D6">
-        <v>1.059643904306206</v>
+        <v>1.036103171488814</v>
       </c>
       <c r="E6">
-        <v>1.052673558693224</v>
+        <v>1.021676646876689</v>
       </c>
       <c r="F6">
-        <v>1.068596410218494</v>
+        <v>1.041225918513224</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042823554300172</v>
+        <v>1.049541234020537</v>
       </c>
       <c r="J6">
-        <v>1.060789711198179</v>
+        <v>1.037387872638055</v>
       </c>
       <c r="K6">
-        <v>1.062010515247211</v>
+        <v>1.045534405547846</v>
       </c>
       <c r="L6">
-        <v>1.05505665050625</v>
+        <v>1.031265446816852</v>
       </c>
       <c r="M6">
-        <v>1.070942191781378</v>
+        <v>1.050602488059432</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.05596141747059</v>
+        <v>1.016537825328789</v>
       </c>
       <c r="D7">
-        <v>1.059250715257258</v>
+        <v>1.034206070438906</v>
       </c>
       <c r="E7">
-        <v>1.0522378530574</v>
+        <v>1.019626745350676</v>
       </c>
       <c r="F7">
-        <v>1.068160241233356</v>
+        <v>1.039158326108594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042704356505721</v>
+        <v>1.048825070916964</v>
       </c>
       <c r="J7">
-        <v>1.060397432601119</v>
+        <v>1.035521808514638</v>
       </c>
       <c r="K7">
-        <v>1.061676594820013</v>
+        <v>1.043905599749488</v>
       </c>
       <c r="L7">
-        <v>1.05468075644121</v>
+        <v>1.029491002102833</v>
       </c>
       <c r="M7">
-        <v>1.070564838981128</v>
+        <v>1.04880319360073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053854656027642</v>
+        <v>1.006030692351059</v>
       </c>
       <c r="D8">
-        <v>1.057603833537508</v>
+        <v>1.026028436358621</v>
       </c>
       <c r="E8">
-        <v>1.050413979811986</v>
+        <v>1.010797530280935</v>
       </c>
       <c r="F8">
-        <v>1.066334196986565</v>
+        <v>1.030252085949173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04220179834801</v>
+        <v>1.045708785171541</v>
       </c>
       <c r="J8">
-        <v>1.058753658761089</v>
+        <v>1.027465391723943</v>
       </c>
       <c r="K8">
-        <v>1.060276315826143</v>
+        <v>1.036867010719686</v>
       </c>
       <c r="L8">
-        <v>1.053105817487065</v>
+        <v>1.021833201859351</v>
       </c>
       <c r="M8">
-        <v>1.068983555926171</v>
+        <v>1.041037291334877</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050128935912557</v>
+        <v>0.9861206850510635</v>
       </c>
       <c r="D9">
-        <v>1.054688514744175</v>
+        <v>1.010559905067213</v>
       </c>
       <c r="E9">
-        <v>1.04718944107112</v>
+        <v>0.9941213911578931</v>
       </c>
       <c r="F9">
-        <v>1.063104964945842</v>
+        <v>1.013429281678391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041299735161952</v>
+        <v>1.039702160535596</v>
       </c>
       <c r="J9">
-        <v>1.055841139911728</v>
+        <v>1.012173260859434</v>
       </c>
       <c r="K9">
-        <v>1.057791309623664</v>
+        <v>1.023483947384386</v>
       </c>
       <c r="L9">
-        <v>1.050315944357748</v>
+        <v>1.007310570211101</v>
       </c>
       <c r="M9">
-        <v>1.066181586151517</v>
+        <v>1.026308171825565</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047635560798287</v>
+        <v>0.9717165942470912</v>
       </c>
       <c r="D10">
-        <v>1.052735620548487</v>
+        <v>0.9993991219491722</v>
       </c>
       <c r="E10">
-        <v>1.04503213792172</v>
+        <v>0.9821034629270959</v>
       </c>
       <c r="F10">
-        <v>1.06094396368233</v>
+        <v>1.001307110692216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040687113983104</v>
+        <v>1.035293319397891</v>
       </c>
       <c r="J10">
-        <v>1.053888269292959</v>
+        <v>1.001099116579213</v>
       </c>
       <c r="K10">
-        <v>1.056122471364848</v>
+        <v>1.013779233916485</v>
       </c>
       <c r="L10">
-        <v>1.048445773111025</v>
+        <v>0.9968035419640328</v>
       </c>
       <c r="M10">
-        <v>1.064302745382207</v>
+        <v>1.015652804888783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046553501044236</v>
+        <v>0.9651595177472431</v>
       </c>
       <c r="D11">
-        <v>1.051887687750231</v>
+        <v>0.994328632561207</v>
       </c>
       <c r="E11">
-        <v>1.044096094475273</v>
+        <v>0.9766461958853088</v>
       </c>
       <c r="F11">
-        <v>1.060006186959753</v>
+        <v>0.9958034510235392</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040419139359406</v>
+        <v>1.033272849071275</v>
       </c>
       <c r="J11">
-        <v>1.053039899970462</v>
+        <v>0.9960571289321922</v>
       </c>
       <c r="K11">
-        <v>1.055396875304433</v>
+        <v>1.009358301001589</v>
       </c>
       <c r="L11">
-        <v>1.04763344168309</v>
+        <v>0.9920223913197985</v>
       </c>
       <c r="M11">
-        <v>1.063486518978061</v>
+        <v>1.010804944435043</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046151201990267</v>
+        <v>0.9626706304856766</v>
       </c>
       <c r="D12">
-        <v>1.051572371780543</v>
+        <v>0.992405835284923</v>
       </c>
       <c r="E12">
-        <v>1.043748109373132</v>
+        <v>0.9745770521014212</v>
       </c>
       <c r="F12">
-        <v>1.059657538469735</v>
+        <v>0.9937169181090506</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040319192035509</v>
+        <v>1.032504065175079</v>
       </c>
       <c r="J12">
-        <v>1.052724353919394</v>
+        <v>0.9941433897881139</v>
       </c>
       <c r="K12">
-        <v>1.055126901805717</v>
+        <v>1.007679988214763</v>
       </c>
       <c r="L12">
-        <v>1.047331316585568</v>
+        <v>0.9902080797860607</v>
       </c>
       <c r="M12">
-        <v>1.063182926136689</v>
+        <v>1.008965490209311</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046237513608037</v>
+        <v>0.9632070095992917</v>
       </c>
       <c r="D13">
-        <v>1.051640024362796</v>
+        <v>0.992820129214016</v>
       </c>
       <c r="E13">
-        <v>1.043822766937197</v>
+        <v>0.9750228650406887</v>
       </c>
       <c r="F13">
-        <v>1.059732339214326</v>
+        <v>0.9941664675770729</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04034064966236</v>
+        <v>1.03266982710179</v>
       </c>
       <c r="J13">
-        <v>1.052792058942385</v>
+        <v>0.9945558130452761</v>
       </c>
       <c r="K13">
-        <v>1.055184832738346</v>
+        <v>1.00804168803108</v>
       </c>
       <c r="L13">
-        <v>1.047396141181545</v>
+        <v>0.9905990561062291</v>
       </c>
       <c r="M13">
-        <v>1.063248066514555</v>
+        <v>1.009361875997925</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046520254573048</v>
+        <v>0.9649549058197222</v>
       </c>
       <c r="D14">
-        <v>1.051861630941608</v>
+        <v>0.9941705202575963</v>
       </c>
       <c r="E14">
-        <v>1.044067336026317</v>
+        <v>0.9764760433144226</v>
       </c>
       <c r="F14">
-        <v>1.059977374072733</v>
+        <v>0.9956318640494036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040410886056708</v>
+        <v>1.0332096840901</v>
       </c>
       <c r="J14">
-        <v>1.053013825533894</v>
+        <v>0.9958997976845765</v>
       </c>
       <c r="K14">
-        <v>1.055374568531891</v>
+        <v>1.009220330199701</v>
       </c>
       <c r="L14">
-        <v>1.047608475912137</v>
+        <v>0.9918732253864059</v>
       </c>
       <c r="M14">
-        <v>1.063461432309638</v>
+        <v>1.010653707553923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046694410723696</v>
+        <v>0.9660246103571396</v>
       </c>
       <c r="D15">
-        <v>1.05199812266078</v>
+        <v>0.9949972020841775</v>
       </c>
       <c r="E15">
-        <v>1.044217983506022</v>
+        <v>0.9773656897857673</v>
       </c>
       <c r="F15">
-        <v>1.060128305942428</v>
+        <v>0.996529018856173</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040454106644991</v>
+        <v>1.033539833685028</v>
       </c>
       <c r="J15">
-        <v>1.053150406815261</v>
+        <v>0.9967223239870799</v>
       </c>
       <c r="K15">
-        <v>1.055491410526736</v>
+        <v>1.009941628439687</v>
       </c>
       <c r="L15">
-        <v>1.04773925055027</v>
+        <v>0.9926530809021271</v>
       </c>
       <c r="M15">
-        <v>1.063592839447355</v>
+        <v>1.011444397513269</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047707321743474</v>
+        <v>0.9721445956923348</v>
       </c>
       <c r="D16">
-        <v>1.052791845571244</v>
+        <v>0.999730322693646</v>
       </c>
       <c r="E16">
-        <v>1.045094218897633</v>
+        <v>0.9824599763760056</v>
       </c>
       <c r="F16">
-        <v>1.061006156931386</v>
+        <v>1.001666679158144</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040704841305751</v>
+        <v>1.035424936567269</v>
       </c>
       <c r="J16">
-        <v>1.053944513804329</v>
+        <v>1.001428221661324</v>
       </c>
       <c r="K16">
-        <v>1.056170563411529</v>
+        <v>1.01406775588723</v>
       </c>
       <c r="L16">
-        <v>1.048499630766869</v>
+        <v>0.9971156781183952</v>
       </c>
       <c r="M16">
-        <v>1.064356858581653</v>
+        <v>1.015969316789241</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048342040231026</v>
+        <v>0.9758943783703123</v>
       </c>
       <c r="D17">
-        <v>1.053289101166261</v>
+        <v>1.002633194297097</v>
       </c>
       <c r="E17">
-        <v>1.045643338736224</v>
+        <v>0.9855849949679836</v>
       </c>
       <c r="F17">
-        <v>1.061556255039519</v>
+        <v>1.004818588992985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040861393964888</v>
+        <v>1.036576555965021</v>
       </c>
       <c r="J17">
-        <v>1.05444189014093</v>
+        <v>1.004311490160806</v>
       </c>
       <c r="K17">
-        <v>1.056595775558403</v>
+        <v>1.016595211067153</v>
       </c>
       <c r="L17">
-        <v>1.048975912752993</v>
+        <v>0.9998505820251185</v>
       </c>
       <c r="M17">
-        <v>1.064835385558804</v>
+        <v>1.018742655111761</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04871202885899</v>
+        <v>0.9780510779195151</v>
       </c>
       <c r="D18">
-        <v>1.053578918950358</v>
+        <v>1.004303720251545</v>
       </c>
       <c r="E18">
-        <v>1.045963446695054</v>
+        <v>0.9873836125791093</v>
       </c>
       <c r="F18">
-        <v>1.061876920856236</v>
+        <v>1.006632768224205</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040952447643325</v>
+        <v>1.037237642374172</v>
       </c>
       <c r="J18">
-        <v>1.054731735303781</v>
+        <v>1.005969725605071</v>
       </c>
       <c r="K18">
-        <v>1.056843507771146</v>
+        <v>1.018048577099909</v>
       </c>
       <c r="L18">
-        <v>1.049253475950168</v>
+        <v>1.001423733908516</v>
       </c>
       <c r="M18">
-        <v>1.065114244601194</v>
+        <v>1.020337985264948</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048838146427919</v>
+        <v>0.9787814319605938</v>
       </c>
       <c r="D19">
-        <v>1.053677701739976</v>
+        <v>1.004869584021772</v>
       </c>
       <c r="E19">
-        <v>1.046072564234804</v>
+        <v>0.9879929100307387</v>
       </c>
       <c r="F19">
-        <v>1.061986226440728</v>
+        <v>1.007247349984534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04098345044593</v>
+        <v>1.037461295652815</v>
       </c>
       <c r="J19">
-        <v>1.054830520151985</v>
+        <v>1.006531258180986</v>
       </c>
       <c r="K19">
-        <v>1.056927929623324</v>
+        <v>1.018540692937189</v>
       </c>
       <c r="L19">
-        <v>1.049348076682767</v>
+        <v>1.001956495093923</v>
       </c>
       <c r="M19">
-        <v>1.065209284866954</v>
+        <v>1.020878267779744</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048273965016969</v>
+        <v>0.9754952506433663</v>
       </c>
       <c r="D20">
-        <v>1.053235773469267</v>
+        <v>1.002324113297147</v>
       </c>
       <c r="E20">
-        <v>1.045584442507192</v>
+        <v>0.985252235320624</v>
       </c>
       <c r="F20">
-        <v>1.061497255168399</v>
+        <v>1.004482956748741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040844624348633</v>
+        <v>1.036454108500289</v>
       </c>
       <c r="J20">
-        <v>1.054388553948059</v>
+        <v>1.004004602126793</v>
       </c>
       <c r="K20">
-        <v>1.056550184041789</v>
+        <v>1.01632621871034</v>
       </c>
       <c r="L20">
-        <v>1.048924837503561</v>
+        <v>0.9995594599485562</v>
       </c>
       <c r="M20">
-        <v>1.064784070850359</v>
+        <v>1.0184474341476</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046437004820017</v>
+        <v>0.9644417111255928</v>
       </c>
       <c r="D21">
-        <v>1.051796383218079</v>
+        <v>0.9937739833297735</v>
       </c>
       <c r="E21">
-        <v>1.043995324792653</v>
+        <v>0.9760493150232458</v>
       </c>
       <c r="F21">
-        <v>1.059905226219854</v>
+        <v>0.9952015418383688</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040390214521884</v>
+        <v>1.033051228215518</v>
       </c>
       <c r="J21">
-        <v>1.052948532572612</v>
+        <v>0.9955051910440629</v>
       </c>
       <c r="K21">
-        <v>1.055318708684535</v>
+        <v>1.0088742773932</v>
       </c>
       <c r="L21">
-        <v>1.047545959431715</v>
+        <v>0.9914991053058207</v>
       </c>
       <c r="M21">
-        <v>1.063398612783784</v>
+        <v>1.010274396323781</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0452798660869</v>
+        <v>0.9571803492033243</v>
       </c>
       <c r="D22">
-        <v>1.050889317909541</v>
+        <v>0.9881680319925343</v>
       </c>
       <c r="E22">
-        <v>1.042994461247335</v>
+        <v>0.9700172171881447</v>
       </c>
       <c r="F22">
-        <v>1.058902419155564</v>
+        <v>0.989119205874328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040102137538738</v>
+        <v>1.030804927827371</v>
       </c>
       <c r="J22">
-        <v>1.052040676980054</v>
+        <v>0.9899221728603836</v>
       </c>
       <c r="K22">
-        <v>1.054541796123095</v>
+        <v>1.003977583803942</v>
       </c>
       <c r="L22">
-        <v>1.046676749108441</v>
+        <v>0.9862069937495093</v>
       </c>
       <c r="M22">
-        <v>1.062525144098507</v>
+        <v>1.004909339613391</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045893496686763</v>
+        <v>0.9610612280060957</v>
       </c>
       <c r="D23">
-        <v>1.051370368650212</v>
+        <v>0.9911630408394692</v>
       </c>
       <c r="E23">
-        <v>1.043525204178384</v>
+        <v>0.9732397489069322</v>
       </c>
       <c r="F23">
-        <v>1.059434203019125</v>
+        <v>0.9923684409116368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04025507844012</v>
+        <v>1.03200643650897</v>
       </c>
       <c r="J23">
-        <v>1.052522184236784</v>
+        <v>0.9929059403691871</v>
       </c>
       <c r="K23">
-        <v>1.0549539044357</v>
+        <v>1.006594692474576</v>
       </c>
       <c r="L23">
-        <v>1.047137750442718</v>
+        <v>0.9890350451481111</v>
       </c>
       <c r="M23">
-        <v>1.062988414294826</v>
+        <v>1.007776255364401</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048304725992697</v>
+        <v>0.9756756931059436</v>
       </c>
       <c r="D24">
-        <v>1.053259870649298</v>
+        <v>1.002463843482935</v>
       </c>
       <c r="E24">
-        <v>1.045611055747751</v>
+        <v>0.9854026694261147</v>
       </c>
       <c r="F24">
-        <v>1.061523915279779</v>
+        <v>1.004634689241366</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040852202622431</v>
+        <v>1.036509469985391</v>
       </c>
       <c r="J24">
-        <v>1.054412655099977</v>
+        <v>1.004143344039089</v>
       </c>
       <c r="K24">
-        <v>1.056570785772145</v>
+        <v>1.016447828983108</v>
       </c>
       <c r="L24">
-        <v>1.048947916964448</v>
+        <v>0.999691073425178</v>
       </c>
       <c r="M24">
-        <v>1.064807258554575</v>
+        <v>1.018580900477008</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051093765322707</v>
+        <v>0.9914515673217967</v>
       </c>
       <c r="D25">
-        <v>1.055443812387914</v>
+        <v>1.014697369219348</v>
       </c>
       <c r="E25">
-        <v>1.048024369385662</v>
+        <v>0.998579243797204</v>
       </c>
       <c r="F25">
-        <v>1.063941207962688</v>
+        <v>1.017926268259925</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041534910598016</v>
+        <v>1.041321611833975</v>
       </c>
       <c r="J25">
-        <v>1.056596035352925</v>
+        <v>1.016270085310271</v>
       </c>
       <c r="K25">
-        <v>1.058435860021317</v>
+        <v>1.027071732711011</v>
       </c>
       <c r="L25">
-        <v>1.051038970107731</v>
+        <v>1.011199655286174</v>
       </c>
       <c r="M25">
-        <v>1.066907846690206</v>
+        <v>1.030252532594111</v>
       </c>
     </row>
   </sheetData>
